--- a/results/three_quarter_turn.txt_50_yaw_change.xlsx
+++ b/results/three_quarter_turn.txt_50_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8542EEFF-21C3-41B6-A47F-B152ABDFDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D05DE28-0C0D-4CAA-AC3D-6E7C3DC6EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_quarter_turn.txt_50_yaw_c" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +579,3925 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$B$2:$B$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.6211508532704301E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.0149386441651601E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.5372974656718399E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.94645992868317E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2582542607072199E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.4864653212578799E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.6428676621872298E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.73751519280266E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.77909061243586E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.4994435990233601E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-5.5439278395384099E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0824147103016304E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5303201933648499E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2462545426121101E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.7917634128739901E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7840073293298203E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.7342632065569599E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0229854405232197E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1971129698669098E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2758114679766999E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2747620749776102E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2073205756069501E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0852633009545197E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9192093990040498E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.7188198124083999E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.4928620933462398E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.2492100420517797E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9948251737375801E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7357473842122799E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.82390000645369E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.4348225219636799E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0832629560436799E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7682319349136E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.48796078351171E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.24022537936475E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0225675633372899E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7344983913414301E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.9824492206639307E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.8122434670954699E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.9780321146484698E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.4375863949499498E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.1527212532563298E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.64068200983924E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7599864514401499E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.6469577483716399E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.58310116195981E-4</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>5.7671351148980103E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.66406867591939E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.03104836608569E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-7.2872817252245205E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.1130948502978599E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.8144043796490201E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-8.7231629165543303E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.7552991988756902E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.98845307965267E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.3916975818505899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-5.3193445712682398E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-3.0683706340584201E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.4324145276151296E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-3.4922273279104799E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-7.1079694098890894E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-3.6993853477818001E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.3843660763557306E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-6.9634571089877806E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.82919230308048E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-4.9391935573883002E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-3.7948073126351803E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.9165626259335501E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.0756022095292401E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.44427367729963E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-8.7402458515622103E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-4.4256293162849196E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-7.6155852147829996E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.3021167048636799E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.8207757855161203E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.6436539350208301E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.4350805432920894E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>9.3722783211138902E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.05761550718373E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.08410446128626E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.15688934515604E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1343457050676299E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.1696356040133299E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.1476251418593901E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0795990126553599E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0753665500955E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0220703639364901E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.3428273777336392E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.15940921082143E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.2253957091071201E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7.5728552517049998E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.4081863454933902E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1999235580146901E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5826898417847001E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.1826930483379598E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2A1-474F-98E2-D8B5A2B61422}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$C$2:$C$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.77666192878198E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.1908524096860299E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.9764828963366198E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.9627269120256001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.1137081325186502E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.4080630640811301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8287480370836601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3593170662622301E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.98324681513346E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1313962360165399</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.5707963267948899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.4728780191354299E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.34152970656652198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23438308827436299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.180203463633099</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.139708443555916</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.106372986283681</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.8894242851849997E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.7047887630408398E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0492113325935102E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.85163823543364E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0180390885108899E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.45349495425537E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.07709458234162E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.2707108708907594E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.5958056066934201E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1253060276904999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.07529675321132E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.78139882540337E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.4684392849888593E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.3761156548351998E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.41271718582836E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.2680704260336001E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.06977989179846E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.4445336192744299E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5497390873076E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.5036987138398101E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.3762068265092901E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.2081804378905E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.02345923631486E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-8.35810364672284E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-6.5306293241651405E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-4.7954403556449399E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.1751494469578403E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.6801968879553899E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.93993468078977405</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0180165520278499</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.20675804373548001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.15567392082899101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.110596888675394</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.110538574727431</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-5.5416478293365101E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-9.4583702612585599E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.0904728902843801E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-8.5472667641692895E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.94908833881219E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-7.9594626202976998E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2030511160920498E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-5.2533946716751198E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.1835908964144398E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.1279124446939597E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.0758786900859099E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.65174145553938E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.15243738442649E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.77662791965713E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.48671003262969E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2582434788906E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0748279485989999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.2517101551233497E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.5536926814119407E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.7169295477353102E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.9259646194704998E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.23770240586755E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.9752448271502703E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.9458633863046298E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.53461739954629E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.16242286045981E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.0410924325355699E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.4221291669242898E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.18430469558927E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.1172297096007202E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.6911032497926499E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5317277318109401E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.6617867284530598E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.9853578181864501E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2A1-474F-98E2-D8B5A2B61422}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$D$2:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.51178244691908E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-6.1791548539183498E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.7780156663366498E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.7757416664566702E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.0508474300694699E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.52261511371678E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.1346140842351698E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.84667727755446E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.63019395302899E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0996945883197999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.4789655457903399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33414379654612097</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.186981954720112</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.12932631415877099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4968046847942203E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.1598403884084602E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4827491416276602E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2573274780759701E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.3602937428358702E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7060067488584E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.12055510170096</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.4958723810929301E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.3532977064197698E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.8317095378651897E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.7859427413285599E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0862102135827398E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.201899442982058</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.27015841661825102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.47716700805359802</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.79007779723392402</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.356598878881982</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.30344838535108198</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.31393784227148003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0181655909792302E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.29234229315298899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.55734136083180397</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.62091551719538596</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.39870374741797798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.31878177046947997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.33405902915173002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.32851607514845299</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-9.0193491657456798E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.2557486682402201E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.2402541853355899E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.6092790483136499E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8591985727042199E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4122928440569701E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.84362089105595E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.190775572744738</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.13384786943183499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-9.3551584733562995E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.5381720019862203E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-4.0480448706135999E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-7.3181514284474197E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.1113766790564901E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-7.0403650717227401E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0292120657616808E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-7.0825567584911694E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4000414872053101E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7814260798571799E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.86349739539969E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2822521010571101E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.59774079091183E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.40437210933881E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.11924745526794E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1913562832178497E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.7453582966030901E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.6673260945729201E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.8371618467393804E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.1771107528194296E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.6364316170413996E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.1817383570587098E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.7908510694543902E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.4488543385472301E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.56414786657766E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6624246696777001E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.49773128147465E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.3275280547679902E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.4563950500242899E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.8450988695240601E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7467766025196199E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.63758882134961E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.7367867244793499E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3063642703689299E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.2474111611163403E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.5149339099981901E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.0567453958630902E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2479364890860499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A2A1-474F-98E2-D8B5A2B61422}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$A$2:$A$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_50_yaw_c!$E$2:$E$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.77666192878198E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.1908524096860299E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5.9764828963366198E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.9627269120256001E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4.1137081325186502E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.4080630640811301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8287480370836601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.3593170662622301E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.98324681513346E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1313962360165399</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.08105938587714</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3521467692748797E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.7401148644628598E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.0003589630495303E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1509779513993298E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2058976559441902E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1768275360864598E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0745662379044397E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.9097162389271698E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.6929306725325998E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.4348397482783901E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.1458012012227902E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8355954062479401E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.18829959824690001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.9886805538462099E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.2678066024081597E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.3524858875022502E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.3165578452460298E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.128408583917938</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.199355574328825</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.8639069876255104E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.80172618830931E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.73940750637114E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.68848981880787E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.3551547290430099E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.5555337186492399E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5362638535778501E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.19916193685508901</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0410378132871702E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.88088761096333E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0897525550956002E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5711853483082199E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1134929577264702E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7133562617432301E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.36649292653782E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0078657256633599E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-7.4975325112363001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.149119982664E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.6062738427975599E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.0030534413694203E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.52430371155354E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.5152748919389198E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-3.1281440210739801E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.5061765952862699E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-3.4952888845172898E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-7.0822818409198005E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.6546636356574597E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-7.2733760613224202E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.6647777958300903E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.0196779418320701E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.9128672393120602E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-3.0647385912489299E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.24054374306429E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.20503078102998101</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.1508233133697102E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.2908828859008201E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.4292751259317002E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.0089317680042301E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.31020733788001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1453009495418798E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.81602588935918E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.55969676494731E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3542708313357601E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.1854952677800399E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.04393371583373E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>9.9288424862019695E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7.8567353029038497E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.0573631713060896E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.3353964982024698E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.1258995113218397E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.88312377959317E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.4208742520903599E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.9906854221232598E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.8752725664291301E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.0955789241313399E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.8075435043932802E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.7415193335864601E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.32348993445743E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-9.1689840166195595E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A2A1-474F-98E2-D8B5A2B61422}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="277864176"/>
+        <c:axId val="277865008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="277864176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277865008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="277865008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277864176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF8E404-B0FA-4AC7-9760-B3BE07A44A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +4794,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2913,5 +6832,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>